--- a/i_codebooks/D5_Table_1_Attrition_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_1_Attrition_ImmDis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\Pipeline_template_CoMaSy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885EC0A-2E6B-495B-8395-AB99B2577878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F44F93-B7FD-4928-8774-21B27E0F3C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -711,9 +711,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,9 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -1289,7 +1287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
@@ -1649,13 +1647,13 @@
         <v>42</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
@@ -1802,13 +1800,13 @@
         <v>117</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
@@ -1817,12 +1815,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1835,6 +1827,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1845,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
